--- a/BackTest/2019-10-31 BackTest WET.xlsx
+++ b/BackTest/2019-10-31 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,19 @@
         <v>-750497.1809906976</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>4.23</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +688,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +727,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +764,19 @@
         <v>-815777.5528906976</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>4.23</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +801,23 @@
         <v>-815077.5528906976</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>4.22</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +842,23 @@
         <v>-815077.5528906976</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>4.23</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +883,19 @@
         <v>-815067.5528906976</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>4.23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +920,23 @@
         <v>-815067.5528906976</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>4.24</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +961,23 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>4.24</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +1004,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1037,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1070,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1101,19 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1138,23 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1179,23 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1220,19 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1257,23 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1298,23 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1341,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1372,19 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1409,23 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1450,23 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1491,19 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1528,23 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1569,23 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1610,19 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1647,23 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1690,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1729,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,22 +1760,15 @@
         <v>4167768.917609302</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1756,24 +1793,21 @@
         <v>4167768.917609302</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1798,24 +1832,21 @@
         <v>4167778.917609302</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1840,24 +1871,21 @@
         <v>4162212.867909302</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1882,24 +1910,21 @@
         <v>4162212.867909302</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1924,24 +1949,21 @@
         <v>4162212.867909302</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1966,24 +1988,21 @@
         <v>4162212.867909302</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2010,22 +2029,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2050,24 +2064,21 @@
         <v>4162212.867909302</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2092,24 +2103,21 @@
         <v>4162212.867909302</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2134,24 +2142,21 @@
         <v>4162222.867909302</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2178,22 +2183,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2220,22 +2220,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2262,22 +2257,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2302,24 +2292,21 @@
         <v>-3154232.991290698</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2344,24 +2331,21 @@
         <v>-3154232.991290698</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2386,24 +2370,21 @@
         <v>-20731055.9314907</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2428,24 +2409,21 @@
         <v>-20731055.9314907</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2472,22 +2450,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2514,22 +2487,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2556,22 +2524,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2598,22 +2561,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2640,22 +2598,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2680,26 +2633,19 @@
         <v>-20507067.6025907</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2724,26 +2670,19 @@
         <v>-20507067.6025907</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K61" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2768,26 +2707,19 @@
         <v>-20516427.7073907</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2812,26 +2744,19 @@
         <v>-20660574.4175907</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K63" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2856,26 +2781,19 @@
         <v>-38998199.53199069</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K64" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2900,26 +2818,19 @@
         <v>-38934331.49399069</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="K65" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2944,26 +2855,19 @@
         <v>-39010079.54119069</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2988,26 +2892,19 @@
         <v>-39010079.54119069</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="K67" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3032,26 +2929,19 @@
         <v>-39010079.54119069</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="K68" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3076,26 +2966,19 @@
         <v>-12429009.66829069</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3120,26 +3003,19 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K70" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3164,26 +3040,19 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K71" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3210,22 +3079,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3250,26 +3114,19 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K73" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3296,22 +3153,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3338,22 +3190,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3380,22 +3227,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3422,22 +3264,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3464,22 +3301,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3506,22 +3338,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3548,22 +3375,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3590,22 +3412,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3632,22 +3449,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3674,22 +3486,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3716,22 +3523,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3758,22 +3560,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3800,22 +3597,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3842,22 +3634,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3884,22 +3671,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3926,22 +3708,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3968,22 +3745,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4010,22 +3782,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4052,22 +3819,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4094,22 +3856,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4136,22 +3893,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4176,24 +3928,17 @@
         <v>-2288739.907254459</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4220,22 +3965,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4262,22 +3998,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4304,22 +4031,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4346,22 +4064,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4388,22 +4097,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4428,24 +4128,15 @@
         <v>-2587779.380354459</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4472,22 +4163,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4512,24 +4194,15 @@
         <v>-2585779.380354459</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4554,24 +4227,15 @@
         <v>-2567367.357854459</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1.044528301886793</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4596,18 +4260,15 @@
         <v>-1849347.403767015</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4634,16 +4295,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4668,18 +4326,15 @@
         <v>-1849347.403767015</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4704,18 +4359,15 @@
         <v>-1851347.403767015</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4740,18 +4392,15 @@
         <v>-1851347.403767015</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4778,16 +4427,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4814,16 +4460,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4850,16 +4493,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4886,16 +4526,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4922,16 +4559,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4958,16 +4592,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4994,16 +4625,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5030,16 +4658,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5066,18 +4691,15 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest WET.xlsx
+++ b/BackTest/2019-10-31 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,14 +649,10 @@
         <v>-750497.1809906976</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -689,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -728,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -764,14 +748,10 @@
         <v>-815777.5528906976</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -801,19 +781,11 @@
         <v>-815077.5528906976</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -842,19 +814,11 @@
         <v>-815077.5528906976</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -883,14 +847,10 @@
         <v>-815067.5528906976</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -920,19 +880,11 @@
         <v>-815067.5528906976</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -961,19 +913,11 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1101,14 +1045,10 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1138,19 +1078,11 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1179,19 +1111,11 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1220,14 +1144,10 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1257,19 +1177,11 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1298,19 +1210,11 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1372,14 +1276,10 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1409,19 +1309,11 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1450,19 +1342,11 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1491,14 +1375,10 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1528,19 +1408,11 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1569,7 +1441,7 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>4.25</v>
@@ -1577,11 +1449,7 @@
       <c r="J32" t="n">
         <v>4.25</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1610,15 +1478,17 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>4.25</v>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1647,7 +1517,7 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>4.25</v>
@@ -1691,14 +1561,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1727,10 +1591,14 @@
         <v>4167768.917609302</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1763,8 +1631,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1793,12 +1667,12 @@
         <v>4167768.917609302</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1832,12 +1706,12 @@
         <v>4167778.917609302</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1871,12 +1745,12 @@
         <v>4162212.867909302</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1910,12 +1784,12 @@
         <v>4162212.867909302</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1949,12 +1823,12 @@
         <v>4162212.867909302</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1988,12 +1862,12 @@
         <v>4162212.867909302</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2030,7 +1904,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2064,12 +1940,12 @@
         <v>4162212.867909302</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2103,12 +1979,12 @@
         <v>4162212.867909302</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2142,12 +2018,12 @@
         <v>4162222.867909302</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2184,7 +2060,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2221,7 +2099,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2258,7 +2138,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2292,12 +2174,12 @@
         <v>-3154232.991290698</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2331,12 +2213,12 @@
         <v>-3154232.991290698</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2370,12 +2252,12 @@
         <v>-20731055.9314907</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2409,12 +2291,12 @@
         <v>-20731055.9314907</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2451,7 +2333,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2488,7 +2372,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2525,7 +2411,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2562,7 +2450,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2599,7 +2489,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2633,10 +2525,14 @@
         <v>-20507067.6025907</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2670,10 +2566,14 @@
         <v>-20507067.6025907</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2710,7 +2610,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2744,10 +2646,14 @@
         <v>-20660574.4175907</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2781,10 +2687,14 @@
         <v>-38998199.53199069</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2818,10 +2728,14 @@
         <v>-38934331.49399069</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2855,10 +2769,14 @@
         <v>-39010079.54119069</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2892,10 +2810,14 @@
         <v>-39010079.54119069</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2932,7 +2854,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,10 +2890,14 @@
         <v>-12429009.66829069</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3003,10 +2931,14 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3040,10 +2972,14 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3080,7 +3016,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3114,10 +3052,14 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3154,7 +3096,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3191,7 +3135,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3228,7 +3174,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3265,7 +3213,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3302,7 +3252,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3339,7 +3291,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3376,7 +3330,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3413,7 +3369,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3450,7 +3408,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3487,7 +3447,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3524,7 +3486,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3561,7 +3525,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3598,7 +3564,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3635,7 +3603,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3672,7 +3642,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3709,7 +3681,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3746,7 +3720,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3783,7 +3759,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3820,7 +3798,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3857,7 +3837,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3894,7 +3876,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3928,16 +3912,20 @@
         <v>-2288739.907254459</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>4.25</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
       <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -3966,8 +3954,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3999,8 +3993,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4032,8 +4032,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4065,8 +4071,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4098,8 +4110,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4128,11 +4146,17 @@
         <v>-2587779.380354459</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4164,8 +4188,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4194,11 +4224,17 @@
         <v>-2585779.380354459</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4227,11 +4263,17 @@
         <v>-2567367.357854459</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4260,11 +4302,17 @@
         <v>-1849347.403767015</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4293,13 +4341,19 @@
         <v>-1849347.403767015</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>1.044411764705882</v>
       </c>
       <c r="M106" t="inlineStr"/>
     </row>
@@ -4326,7 +4380,7 @@
         <v>-1849347.403767015</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4359,7 +4413,7 @@
         <v>-1851347.403767015</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4392,7 +4446,7 @@
         <v>-1851347.403767015</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4425,7 +4479,7 @@
         <v>-1851337.403767015</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4458,7 +4512,7 @@
         <v>-1851337.403767015</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4491,7 +4545,7 @@
         <v>-1851337.403767015</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4524,7 +4578,7 @@
         <v>-1888346.748767015</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4557,7 +4611,7 @@
         <v>-1840750.780767015</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4590,7 +4644,7 @@
         <v>-1858988.875667015</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4623,7 +4677,7 @@
         <v>-1858988.875667015</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4656,7 +4710,7 @@
         <v>-1858988.875667015</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4689,7 +4743,7 @@
         <v>-1976853.534367015</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4700,6 +4754,6 @@
       <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest WET.xlsx
+++ b/BackTest/2019-10-31 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1441,14 +1441,10 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1481,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1517,19 +1507,11 @@
         <v>4198462.447109303</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1591,14 +1573,10 @@
         <v>4167768.917609302</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1631,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1670,1159 +1642,977 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K38" t="inlineStr">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4167778.917609302</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5566.0497</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4162212.867909302</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F41" t="n">
+        <v>927.675</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4162212.867909302</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2906.2753</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4162212.867909302</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6473944.2246</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4162212.867909302</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9400</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4162212.867909302</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F45" t="n">
+        <v>62471.5294</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4162212.867909302</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F46" t="n">
+        <v>16383129.3479</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4162212.867909302</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4162222.867909302</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4162222.867909302</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F49" t="n">
+        <v>15733792.5195</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-11571569.6515907</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F50" t="n">
+        <v>281890.7543</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-11853460.4058907</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F51" t="n">
+        <v>8699227.4146</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-3154232.991290698</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F52" t="n">
+        <v>15753659.1195</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-3154232.991290698</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F53" t="n">
+        <v>17576822.9402</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-20731055.9314907</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F54" t="n">
+        <v>16763501.5782</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-20731055.9314907</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8694254.6548</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-12036801.2766907</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F56" t="n">
+        <v>17579688.8179</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-12036801.2766907</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F57" t="n">
+        <v>16480</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-12020321.2766907</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8486746.3259</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-20507067.6025907</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8890877.1033</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-20507067.6025907</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9092942.492000001</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-20507067.6025907</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7072288.6049</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-20507067.6025907</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9360.104799999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-20516427.7073907</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F63" t="n">
+        <v>144146.7102</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-20660574.4175907</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="F64" t="n">
+        <v>18337625.1144</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-38998199.53199069</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="F65" t="n">
+        <v>63868.038</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-38934331.49399069</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="F66" t="n">
+        <v>75748.0472</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-39010079.54119069</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="F67" t="n">
+        <v>18008472.8685</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-39010079.54119069</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F39" t="n">
-        <v>10</v>
-      </c>
-      <c r="G39" t="n">
-        <v>4167778.917609302</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D40" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E40" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F40" t="n">
-        <v>5566.0497</v>
-      </c>
-      <c r="G40" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F41" t="n">
-        <v>927.675</v>
-      </c>
-      <c r="G41" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C42" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D42" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2906.2753</v>
-      </c>
-      <c r="G42" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C43" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D43" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F43" t="n">
-        <v>6473944.2246</v>
-      </c>
-      <c r="G43" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E44" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F44" t="n">
-        <v>9400</v>
-      </c>
-      <c r="G44" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D45" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F45" t="n">
-        <v>62471.5294</v>
-      </c>
-      <c r="G45" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C46" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D46" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E46" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F46" t="n">
-        <v>16383129.3479</v>
-      </c>
-      <c r="G46" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C47" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E47" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F47" t="n">
-        <v>10</v>
-      </c>
-      <c r="G47" t="n">
-        <v>4162222.867909302</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E48" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G48" t="n">
-        <v>4162222.867909302</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D49" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E49" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F49" t="n">
-        <v>15733792.5195</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-11571569.6515907</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="C50" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="E50" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="F50" t="n">
-        <v>281890.7543</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-11853460.4058907</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C51" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D51" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F51" t="n">
-        <v>8699227.4146</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-3154232.991290698</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D52" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F52" t="n">
-        <v>15753659.1195</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-3154232.991290698</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="D53" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F53" t="n">
-        <v>17576822.9402</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-20731055.9314907</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="D54" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="E54" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F54" t="n">
-        <v>16763501.5782</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-20731055.9314907</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F55" t="n">
-        <v>8694254.6548</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-12036801.2766907</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F56" t="n">
-        <v>17579688.8179</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-12036801.2766907</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F57" t="n">
-        <v>16480</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-12020321.2766907</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F58" t="n">
-        <v>8486746.3259</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-20507067.6025907</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C59" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E59" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F59" t="n">
-        <v>8890877.1033</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-20507067.6025907</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F60" t="n">
-        <v>9092942.492000001</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-20507067.6025907</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D61" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E61" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F61" t="n">
-        <v>7072288.6049</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-20507067.6025907</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F62" t="n">
-        <v>9360.104799999999</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-20516427.7073907</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E63" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="F63" t="n">
-        <v>144146.7102</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-20660574.4175907</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="J63" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C64" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="D64" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="E64" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F64" t="n">
-        <v>18337625.1144</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-38998199.53199069</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J64" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="D65" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="E65" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F65" t="n">
-        <v>63868.038</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-38934331.49399069</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="J65" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F66" t="n">
-        <v>75748.0472</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-39010079.54119069</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="D67" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E67" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F67" t="n">
-        <v>18008472.8685</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-39010079.54119069</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="J67" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2851,11 +2641,13 @@
         <v>-39010079.54119069</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4.21</v>
+      </c>
       <c r="J68" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2896,7 +2688,7 @@
         <v>4.21</v>
       </c>
       <c r="J69" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2931,13 +2723,11 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2972,13 +2762,11 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3017,7 +2805,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3052,13 +2840,11 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3097,7 +2883,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3136,7 +2922,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3175,7 +2961,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3214,7 +3000,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3253,7 +3039,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3292,7 +3078,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3331,7 +3117,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3370,7 +3156,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3409,7 +3195,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3448,7 +3234,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3487,7 +3273,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3526,7 +3312,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3565,7 +3351,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3604,7 +3390,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3643,7 +3429,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3682,7 +3468,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3721,7 +3507,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3756,19 +3542,19 @@
         <v>-2860803.017654459</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>1.044763033175355</v>
       </c>
       <c r="M91" t="inlineStr"/>
     </row>
@@ -3795,17 +3581,11 @@
         <v>-2231956.100954459</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3834,17 +3614,11 @@
         <v>-2231956.100954459</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3873,17 +3647,11 @@
         <v>-2290550.838354459</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3912,17 +3680,11 @@
         <v>-2288739.907254459</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3954,14 +3716,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3993,14 +3749,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4032,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4071,14 +3815,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4110,14 +3848,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4149,14 +3881,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4185,17 +3911,11 @@
         <v>-2585779.380354459</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4224,17 +3944,11 @@
         <v>-2585779.380354459</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4266,14 +3980,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4302,17 +4010,11 @@
         <v>-1849347.403767015</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4344,16 +4046,10 @@
         <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>1.044411764705882</v>
+        <v>1</v>
       </c>
       <c r="M106" t="inlineStr"/>
     </row>
@@ -4380,7 +4076,7 @@
         <v>-1849347.403767015</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4413,7 +4109,7 @@
         <v>-1851347.403767015</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4446,7 +4142,7 @@
         <v>-1851347.403767015</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4479,7 +4175,7 @@
         <v>-1851337.403767015</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4512,7 +4208,7 @@
         <v>-1851337.403767015</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4545,7 +4241,7 @@
         <v>-1851337.403767015</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4578,7 +4274,7 @@
         <v>-1888346.748767015</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4611,7 +4307,7 @@
         <v>-1840750.780767015</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4644,7 +4340,7 @@
         <v>-1858988.875667015</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4677,7 +4373,7 @@
         <v>-1858988.875667015</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4710,7 +4406,7 @@
         <v>-1858988.875667015</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4743,7 +4439,7 @@
         <v>-1976853.534367015</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4754,6 +4450,6 @@
       <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest WET.xlsx
+++ b/BackTest/2019-10-31 BackTest WET.xlsx
@@ -2563,14 +2563,10 @@
         <v>-39010079.54119069</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2605,9 +2601,7 @@
       <c r="I67" t="n">
         <v>4.21</v>
       </c>
-      <c r="J67" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2646,9 +2640,7 @@
       <c r="I68" t="n">
         <v>4.21</v>
       </c>
-      <c r="J68" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2687,9 +2679,7 @@
       <c r="I69" t="n">
         <v>4.21</v>
       </c>
-      <c r="J69" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2723,12 +2713,12 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>4.22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2762,12 +2752,12 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>4.22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2801,12 +2791,12 @@
         <v>-3662943.80819069</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>4.22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2843,9 +2833,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2882,9 +2870,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2921,9 +2907,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2960,9 +2944,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2999,9 +2981,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3038,9 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3077,9 +3055,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3116,9 +3092,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3155,9 +3129,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3194,9 +3166,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3233,9 +3203,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3272,9 +3240,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3311,9 +3277,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3350,9 +3314,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3389,9 +3351,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3428,9 +3388,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3467,9 +3425,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3506,9 +3462,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3542,251 +3496,275 @@
         <v>-2860803.017654459</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F92" t="n">
+        <v>628846.9166999999</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-2231956.100954459</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>18550.66666666667</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-2231956.100954459</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F94" t="n">
+        <v>58594.7374</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-2290550.838354459</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1810.9311</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-2288739.907254459</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F96" t="n">
+        <v>20459.0689</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-2288739.907254459</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="F97" t="n">
+        <v>60</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-2288799.907254459</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F98" t="n">
+        <v>373685.0117</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-2662484.918954459</v>
+      </c>
+      <c r="H98" t="n">
         <v>2</v>
       </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="K91" t="inlineStr">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1.044763033175355</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C92" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D92" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E92" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F92" t="n">
-        <v>628846.9166999999</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-2231956.100954459</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C93" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D93" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E93" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F93" t="n">
-        <v>18550.66666666667</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-2231956.100954459</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C94" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D94" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="E94" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F94" t="n">
-        <v>58594.7374</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-2290550.838354459</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C95" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D95" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="E95" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1810.9311</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-2288739.907254459</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C96" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="D96" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="E96" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F96" t="n">
-        <v>20459.0689</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-2288739.907254459</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="C97" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="D97" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="E97" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F97" t="n">
-        <v>60</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-2288799.907254459</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C98" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="D98" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E98" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="F98" t="n">
-        <v>373685.0117</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-2662484.918954459</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -3911,7 +3889,7 @@
         <v>-2585779.380354459</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3977,7 +3955,7 @@
         <v>-2567367.357854459</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4076,7 +4054,7 @@
         <v>-1849347.403767015</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4109,7 +4087,7 @@
         <v>-1851347.403767015</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4241,7 +4219,7 @@
         <v>-1851337.403767015</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4373,7 +4351,7 @@
         <v>-1858988.875667015</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest WET.xlsx
+++ b/BackTest/2019-10-31 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>386.2769</v>
       </c>
       <c r="G2" t="n">
-        <v>-726661.3021906976</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>110182.3154</v>
       </c>
       <c r="G3" t="n">
-        <v>-726661.3021906976</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>-726611.3021906976</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>199</v>
       </c>
       <c r="G5" t="n">
-        <v>-726611.3021906976</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>4000</v>
       </c>
       <c r="G6" t="n">
-        <v>-726611.3021906976</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>40834.9354</v>
       </c>
       <c r="G7" t="n">
-        <v>-767446.2375906976</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>16949.0566</v>
       </c>
       <c r="G8" t="n">
-        <v>-750497.1809906976</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>239.4</v>
       </c>
       <c r="G9" t="n">
-        <v>-750736.5809906976</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,19 @@
         <v>43169.2012</v>
       </c>
       <c r="G10" t="n">
-        <v>-750736.5809906976</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>4.23</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.23</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +717,21 @@
         <v>65040.9719</v>
       </c>
       <c r="G11" t="n">
-        <v>-815777.5528906976</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +753,23 @@
         <v>700</v>
       </c>
       <c r="G12" t="n">
-        <v>-815077.5528906976</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>4.22</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +791,19 @@
         <v>6718.2213</v>
       </c>
       <c r="G13" t="n">
-        <v>-815077.5528906976</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>4.23</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.23</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +825,23 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>-815067.5528906976</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>4.23</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +863,21 @@
         <v>5040580</v>
       </c>
       <c r="G15" t="n">
-        <v>-815067.5528906976</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +899,15 @@
         <v>5013530</v>
       </c>
       <c r="G16" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +929,15 @@
         <v>10000000</v>
       </c>
       <c r="G17" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +959,15 @@
         <v>7000000</v>
       </c>
       <c r="G18" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +989,15 @@
         <v>4115612.076</v>
       </c>
       <c r="G19" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1019,15 @@
         <v>6000000</v>
       </c>
       <c r="G20" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1049,15 @@
         <v>10000000</v>
       </c>
       <c r="G21" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1079,15 @@
         <v>4000000</v>
       </c>
       <c r="G22" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1109,15 @@
         <v>4000000</v>
       </c>
       <c r="G23" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1139,15 @@
         <v>10000000</v>
       </c>
       <c r="G24" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1169,15 @@
         <v>25000000</v>
       </c>
       <c r="G25" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1199,15 @@
         <v>15000000</v>
       </c>
       <c r="G26" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1229,15 @@
         <v>18000000</v>
       </c>
       <c r="G27" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1259,15 @@
         <v>18000000</v>
       </c>
       <c r="G28" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1289,15 @@
         <v>18000000</v>
       </c>
       <c r="G29" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1319,15 @@
         <v>27000000</v>
       </c>
       <c r="G30" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1349,15 @@
         <v>18000000</v>
       </c>
       <c r="G31" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1379,15 @@
         <v>36000000</v>
       </c>
       <c r="G32" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1409,15 @@
         <v>9000000</v>
       </c>
       <c r="G33" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1439,15 @@
         <v>45000000</v>
       </c>
       <c r="G34" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1469,15 @@
         <v>27000000</v>
       </c>
       <c r="G35" t="n">
-        <v>4198462.447109303</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1499,15 @@
         <v>30693.5295</v>
       </c>
       <c r="G36" t="n">
-        <v>4167768.917609302</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1529,15 @@
         <v>44514.5134</v>
       </c>
       <c r="G37" t="n">
-        <v>4167768.917609302</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1559,15 @@
         <v>18186120.4882</v>
       </c>
       <c r="G38" t="n">
-        <v>4167768.917609302</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1589,15 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>4167778.917609302</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1619,15 @@
         <v>5566.0497</v>
       </c>
       <c r="G40" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1649,15 @@
         <v>927.675</v>
       </c>
       <c r="G41" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1679,15 @@
         <v>2906.2753</v>
       </c>
       <c r="G42" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1709,15 @@
         <v>6473944.2246</v>
       </c>
       <c r="G43" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1739,15 @@
         <v>9400</v>
       </c>
       <c r="G44" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1769,15 @@
         <v>62471.5294</v>
       </c>
       <c r="G45" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1799,15 @@
         <v>16383129.3479</v>
       </c>
       <c r="G46" t="n">
-        <v>4162212.867909302</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1829,15 @@
         <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>4162222.867909302</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1859,15 @@
         <v>5000</v>
       </c>
       <c r="G48" t="n">
-        <v>4162222.867909302</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1889,15 @@
         <v>15733792.5195</v>
       </c>
       <c r="G49" t="n">
-        <v>-11571569.6515907</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1919,15 @@
         <v>281890.7543</v>
       </c>
       <c r="G50" t="n">
-        <v>-11853460.4058907</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1949,15 @@
         <v>8699227.4146</v>
       </c>
       <c r="G51" t="n">
-        <v>-3154232.991290698</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1979,15 @@
         <v>15753659.1195</v>
       </c>
       <c r="G52" t="n">
-        <v>-3154232.991290698</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2009,15 @@
         <v>17576822.9402</v>
       </c>
       <c r="G53" t="n">
-        <v>-20731055.9314907</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2039,15 @@
         <v>16763501.5782</v>
       </c>
       <c r="G54" t="n">
-        <v>-20731055.9314907</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2069,15 @@
         <v>8694254.6548</v>
       </c>
       <c r="G55" t="n">
-        <v>-12036801.2766907</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2099,15 @@
         <v>17579688.8179</v>
       </c>
       <c r="G56" t="n">
-        <v>-12036801.2766907</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2129,15 @@
         <v>16480</v>
       </c>
       <c r="G57" t="n">
-        <v>-12020321.2766907</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2159,15 @@
         <v>8486746.3259</v>
       </c>
       <c r="G58" t="n">
-        <v>-20507067.6025907</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2189,15 @@
         <v>8890877.1033</v>
       </c>
       <c r="G59" t="n">
-        <v>-20507067.6025907</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2219,15 @@
         <v>9092942.492000001</v>
       </c>
       <c r="G60" t="n">
-        <v>-20507067.6025907</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2249,15 @@
         <v>7072288.6049</v>
       </c>
       <c r="G61" t="n">
-        <v>-20507067.6025907</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2279,15 @@
         <v>9360.104799999999</v>
       </c>
       <c r="G62" t="n">
-        <v>-20516427.7073907</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2309,15 @@
         <v>144146.7102</v>
       </c>
       <c r="G63" t="n">
-        <v>-20660574.4175907</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2339,15 @@
         <v>18337625.1144</v>
       </c>
       <c r="G64" t="n">
-        <v>-38998199.53199069</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2369,15 @@
         <v>63868.038</v>
       </c>
       <c r="G65" t="n">
-        <v>-38934331.49399069</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2399,15 @@
         <v>75748.0472</v>
       </c>
       <c r="G66" t="n">
-        <v>-39010079.54119069</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,24 +2429,21 @@
         <v>18008472.8685</v>
       </c>
       <c r="G67" t="n">
-        <v>-39010079.54119069</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
         <v>4.21</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2632,24 +2465,21 @@
         <v>571669.3017</v>
       </c>
       <c r="G68" t="n">
-        <v>-39010079.54119069</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
         <v>4.21</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2671,24 +2501,21 @@
         <v>26581069.8729</v>
       </c>
       <c r="G69" t="n">
-        <v>-12429009.66829069</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
         <v>4.21</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2710,24 +2537,21 @@
         <v>8766065.860099999</v>
       </c>
       <c r="G70" t="n">
-        <v>-3662943.80819069</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+        <v>4.24</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2749,24 +2573,21 @@
         <v>14561.7741</v>
       </c>
       <c r="G71" t="n">
-        <v>-3662943.80819069</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+        <v>4.25</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2788,24 +2609,21 @@
         <v>9052264.1876</v>
       </c>
       <c r="G72" t="n">
-        <v>-3662943.80819069</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
+        <v>4.25</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2827,22 +2645,21 @@
         <v>16371743.6707</v>
       </c>
       <c r="G73" t="n">
-        <v>-3662943.80819069</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2864,22 +2681,21 @@
         <v>208548.122</v>
       </c>
       <c r="G74" t="n">
-        <v>-3454395.68619069</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2901,22 +2717,21 @@
         <v>9310</v>
       </c>
       <c r="G75" t="n">
-        <v>-3445085.68619069</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2938,22 +2753,21 @@
         <v>36602.2323</v>
       </c>
       <c r="G76" t="n">
-        <v>-3408483.453890691</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2975,22 +2789,19 @@
         <v>50100</v>
       </c>
       <c r="G77" t="n">
-        <v>-3408483.453890691</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3012,22 +2823,19 @@
         <v>68601.68333851508</v>
       </c>
       <c r="G78" t="n">
-        <v>-3339881.770552176</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3049,22 +2857,19 @@
         <v>2600</v>
       </c>
       <c r="G79" t="n">
-        <v>-3337281.770552176</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3086,22 +2891,19 @@
         <v>51462.8175</v>
       </c>
       <c r="G80" t="n">
-        <v>-3337281.770552176</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3123,22 +2925,19 @@
         <v>9533</v>
       </c>
       <c r="G81" t="n">
-        <v>-3327748.770552176</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3160,22 +2959,19 @@
         <v>43403.1487</v>
       </c>
       <c r="G82" t="n">
-        <v>-3284345.621852176</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3197,22 +2993,19 @@
         <v>8966.3287</v>
       </c>
       <c r="G83" t="n">
-        <v>-3293311.950552176</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3234,22 +3027,19 @@
         <v>109514.9839</v>
       </c>
       <c r="G84" t="n">
-        <v>-3293311.950552176</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3271,22 +3061,19 @@
         <v>228.310502283105</v>
       </c>
       <c r="G85" t="n">
-        <v>-3293311.950552176</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3308,22 +3095,19 @@
         <v>7100</v>
       </c>
       <c r="G86" t="n">
-        <v>-3300411.950552176</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3345,22 +3129,19 @@
         <v>42874.75</v>
       </c>
       <c r="G87" t="n">
-        <v>-3300411.950552176</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3382,22 +3163,19 @@
         <v>2205.0343</v>
       </c>
       <c r="G88" t="n">
-        <v>-3298206.916252176</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3419,22 +3197,19 @@
         <v>4894.9657</v>
       </c>
       <c r="G89" t="n">
-        <v>-3298206.916252176</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3456,22 +3231,19 @@
         <v>432276.2236977169</v>
       </c>
       <c r="G90" t="n">
-        <v>-2865930.692554459</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3493,22 +3265,19 @@
         <v>5127.6749</v>
       </c>
       <c r="G91" t="n">
-        <v>-2860803.017654459</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3530,22 +3299,19 @@
         <v>628846.9166999999</v>
       </c>
       <c r="G92" t="n">
-        <v>-2231956.100954459</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3567,22 +3333,19 @@
         <v>18550.66666666667</v>
       </c>
       <c r="G93" t="n">
-        <v>-2231956.100954459</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3604,22 +3367,17 @@
         <v>58594.7374</v>
       </c>
       <c r="G94" t="n">
-        <v>-2290550.838354459</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3641,22 +3399,15 @@
         <v>1810.9311</v>
       </c>
       <c r="G95" t="n">
-        <v>-2288739.907254459</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3678,22 +3429,15 @@
         <v>20459.0689</v>
       </c>
       <c r="G96" t="n">
-        <v>-2288739.907254459</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3715,22 +3459,15 @@
         <v>60</v>
       </c>
       <c r="G97" t="n">
-        <v>-2288799.907254459</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3752,20 +3489,15 @@
         <v>373685.0117</v>
       </c>
       <c r="G98" t="n">
-        <v>-2662484.918954459</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K98" t="n">
+        <v>1</v>
       </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3787,18 +3519,15 @@
         <v>92371.8511</v>
       </c>
       <c r="G99" t="n">
-        <v>-2570113.067854459</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3820,18 +3549,15 @@
         <v>837.9775</v>
       </c>
       <c r="G100" t="n">
-        <v>-2569275.090354459</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3853,18 +3579,15 @@
         <v>18504.29</v>
       </c>
       <c r="G101" t="n">
-        <v>-2587779.380354459</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3886,18 +3609,15 @@
         <v>2000</v>
       </c>
       <c r="G102" t="n">
-        <v>-2585779.380354459</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3919,18 +3639,15 @@
         <v>18557.797</v>
       </c>
       <c r="G103" t="n">
-        <v>-2585779.380354459</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3952,18 +3669,15 @@
         <v>18412.0225</v>
       </c>
       <c r="G104" t="n">
-        <v>-2567367.357854459</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3985,18 +3699,15 @@
         <v>718019.954087444</v>
       </c>
       <c r="G105" t="n">
-        <v>-1849347.403767015</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4018,18 +3729,15 @@
         <v>742695.5717125561</v>
       </c>
       <c r="G106" t="n">
-        <v>-1849347.403767015</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4051,18 +3759,15 @@
         <v>475782.8114</v>
       </c>
       <c r="G107" t="n">
-        <v>-1849347.403767015</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4084,18 +3789,15 @@
         <v>2000</v>
       </c>
       <c r="G108" t="n">
-        <v>-1851347.403767015</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4117,18 +3819,15 @@
         <v>1010319.3627</v>
       </c>
       <c r="G109" t="n">
-        <v>-1851347.403767015</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4150,18 +3849,15 @@
         <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>-1851337.403767015</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4183,18 +3879,15 @@
         <v>36360</v>
       </c>
       <c r="G111" t="n">
-        <v>-1851337.403767015</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4216,18 +3909,15 @@
         <v>18180</v>
       </c>
       <c r="G112" t="n">
-        <v>-1851337.403767015</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4249,18 +3939,15 @@
         <v>37009.345</v>
       </c>
       <c r="G113" t="n">
-        <v>-1888346.748767015</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4282,18 +3969,15 @@
         <v>47595.968</v>
       </c>
       <c r="G114" t="n">
-        <v>-1840750.780767015</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4315,18 +3999,15 @@
         <v>18238.0949</v>
       </c>
       <c r="G115" t="n">
-        <v>-1858988.875667015</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4348,18 +4029,15 @@
         <v>37012.314</v>
       </c>
       <c r="G116" t="n">
-        <v>-1858988.875667015</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4381,18 +4059,15 @@
         <v>28411.5012</v>
       </c>
       <c r="G117" t="n">
-        <v>-1858988.875667015</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4414,18 +4089,15 @@
         <v>117864.6587</v>
       </c>
       <c r="G118" t="n">
-        <v>-1976853.534367015</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
